--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H2">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I2">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J2">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.5579590133466668</v>
+        <v>0.251006085757</v>
       </c>
       <c r="R2">
-        <v>5.02163112012</v>
+        <v>2.259054771813</v>
       </c>
       <c r="S2">
-        <v>0.005364615279694485</v>
+        <v>0.002589069699679107</v>
       </c>
       <c r="T2">
-        <v>0.005364615279694486</v>
+        <v>0.002589069699679107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H3">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I3">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J3">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>27.95365144802933</v>
+        <v>17.012410011709</v>
       </c>
       <c r="R3">
-        <v>251.582863032264</v>
+        <v>153.111690105381</v>
       </c>
       <c r="S3">
-        <v>0.2687663109551376</v>
+        <v>0.1754790731348031</v>
       </c>
       <c r="T3">
-        <v>0.2687663109551377</v>
+        <v>0.175479073134803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H4">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I4">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J4">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>5.227220064866668</v>
+        <v>5.441424701916</v>
       </c>
       <c r="R4">
-        <v>47.0449805838</v>
+        <v>48.972822317244</v>
       </c>
       <c r="S4">
-        <v>0.05025821603295164</v>
+        <v>0.05612703682593179</v>
       </c>
       <c r="T4">
-        <v>0.05025821603295164</v>
+        <v>0.05612703682593177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H5">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I5">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J5">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.04877958841600001</v>
+        <v>0.050524521159</v>
       </c>
       <c r="R5">
-        <v>0.4390162957440001</v>
+        <v>0.454720690431</v>
       </c>
       <c r="S5">
-        <v>0.0004690016992181726</v>
+        <v>0.0005211487459718485</v>
       </c>
       <c r="T5">
-        <v>0.0004690016992181727</v>
+        <v>0.0005211487459718483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H6">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I6">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J6">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>0.6324441751950001</v>
+        <v>0.8183958065664444</v>
       </c>
       <c r="R6">
-        <v>5.691997576755001</v>
+        <v>7.365562259098</v>
       </c>
       <c r="S6">
-        <v>0.006080768666957393</v>
+        <v>0.008441563393713587</v>
       </c>
       <c r="T6">
-        <v>0.006080768666957395</v>
+        <v>0.008441563393713587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H7">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I7">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J7">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
-        <v>31.685345358429</v>
+        <v>55.46831651982511</v>
       </c>
       <c r="R7">
-        <v>285.168108225861</v>
+        <v>499.214848678426</v>
       </c>
       <c r="S7">
-        <v>0.3046454735674545</v>
+        <v>0.5721428512801875</v>
       </c>
       <c r="T7">
-        <v>0.3046454735674546</v>
+        <v>0.5721428512801874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H8">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I8">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J8">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>5.925031773675</v>
+        <v>17.74155851386933</v>
       </c>
       <c r="R8">
-        <v>53.325285963075</v>
+        <v>159.674026624824</v>
       </c>
       <c r="S8">
-        <v>0.05696747471661237</v>
+        <v>0.1830000712325835</v>
       </c>
       <c r="T8">
-        <v>0.05696747471661238</v>
+        <v>0.1830000712325835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H9">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I9">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J9">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.05529145658400001</v>
+        <v>0.1647332817473333</v>
       </c>
       <c r="R9">
-        <v>0.4976231092560001</v>
+        <v>1.482599535726</v>
       </c>
       <c r="S9">
-        <v>0.0005316114369189313</v>
+        <v>0.00169918568712961</v>
       </c>
       <c r="T9">
-        <v>0.0005316114369189315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.28424</v>
-      </c>
-      <c r="H10">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J10">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.854571666666667</v>
-      </c>
-      <c r="N10">
-        <v>5.563715</v>
-      </c>
-      <c r="O10">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="P10">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="Q10">
-        <v>0.5271434505333333</v>
-      </c>
-      <c r="R10">
-        <v>4.7442910548</v>
-      </c>
-      <c r="S10">
-        <v>0.005068332514892041</v>
-      </c>
-      <c r="T10">
-        <v>0.005068332514892043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.28424</v>
-      </c>
-      <c r="H11">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J11">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>92.91372433333333</v>
-      </c>
-      <c r="N11">
-        <v>278.741173</v>
-      </c>
-      <c r="O11">
-        <v>0.8273343794712995</v>
-      </c>
-      <c r="P11">
-        <v>0.8273343794712996</v>
-      </c>
-      <c r="Q11">
-        <v>26.40979700450666</v>
-      </c>
-      <c r="R11">
-        <v>237.68817304056</v>
-      </c>
-      <c r="S11">
-        <v>0.2539225949487074</v>
-      </c>
-      <c r="T11">
-        <v>0.2539225949487074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.28424</v>
-      </c>
-      <c r="H12">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J12">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>17.37449166666667</v>
-      </c>
-      <c r="N12">
-        <v>52.123475</v>
-      </c>
-      <c r="O12">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="P12">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="Q12">
-        <v>4.938525511333333</v>
-      </c>
-      <c r="R12">
-        <v>44.446729602</v>
-      </c>
-      <c r="S12">
-        <v>0.04748250101445931</v>
-      </c>
-      <c r="T12">
-        <v>0.04748250101445931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.28424</v>
-      </c>
-      <c r="H13">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J13">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.162136</v>
-      </c>
-      <c r="N13">
-        <v>0.4864080000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.001443712303133186</v>
-      </c>
-      <c r="P13">
-        <v>0.001443712303133187</v>
-      </c>
-      <c r="Q13">
-        <v>0.04608553664000001</v>
-      </c>
-      <c r="R13">
-        <v>0.41476982976</v>
-      </c>
-      <c r="S13">
-        <v>0.0004430991669960823</v>
-      </c>
-      <c r="T13">
-        <v>0.0004430991669960825</v>
+        <v>0.00169918568712961</v>
       </c>
     </row>
   </sheetData>
